--- a/va_facility_data_2025-02-20/Warren VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Warren%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Warren VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Warren%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rad72fc8b64a649ea9102f32358eceb51"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4850f27f88404c7cb6b9927afc1787e6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04b12e79d43445cca2de285946f4699e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0337aa9e530d4fe6be3ce1bb2c875c38"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4136140ebd9846a1a26660677a8c5a9a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R37261b1cbaea4a7daafc2d8ac0a6de6d"/>
   </x:sheets>
 </x:workbook>
 </file>
